--- a/xlsx/沙漠_intext.xlsx
+++ b/xlsx/沙漠_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>沙漠</t>
   </si>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>裝甲騎兵</t>
+    <t>装甲骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E9%A2%A8</t>
   </si>
   <si>
-    <t>信風</t>
+    <t>信风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E9%AB%98%E5%A3%93</t>
   </si>
   <si>
-    <t>副熱帶高壓</t>
+    <t>副热带高压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%BC%E6%B5%81</t>
   </si>
   <si>
-    <t>涼流</t>
+    <t>凉流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%94%E5%8D%A1%E9%A9%AC%E6%B2%99%E6%BC%A0</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>納米比沙漠</t>
+    <t>纳米比沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9C%88%E5%BD%A2%E6%B2%99%E4%B8%98</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%A0%BC%E9%AD%AF%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>薩格魯國家公園</t>
+    <t>萨格鲁国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E9%A2%A8%E9%9B%A8</t>
   </si>
   <si>
-    <t>暴風雨</t>
+    <t>暴风雨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%B0%B4</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%BC%E9%85%B8%E9%B9%BD</t>
   </si>
   <si>
-    <t>硼酸鹽</t>
+    <t>硼酸盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%BC%E7%A0%82</t>
@@ -527,9 +527,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%94%E5%8D%A1%E9%A6%AC%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>阿塔卡馬沙漠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0</t>
   </si>
   <si>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E5%BA%AB%E5%A7%86%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>卡拉庫姆沙漠</t>
+    <t>卡拉库姆沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%94%E6%B2%99%E6%BC%A0</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A1%B5%E6%9A%B4</t>
   </si>
   <si>
-    <t>沙塵暴</t>
+    <t>沙尘暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E5%88%97%E8%A1%A8</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E8%B0%B7</t>
   </si>
   <si>
-    <t>乾谷</t>
+    <t>干谷</t>
   </si>
 </sst>
 </file>
@@ -3549,7 +3546,7 @@
         <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3575,10 +3572,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3604,10 +3601,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3633,10 +3630,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3662,10 +3659,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3691,10 +3688,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3720,10 +3717,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3749,10 +3746,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3778,10 +3775,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3807,10 +3804,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3836,10 +3833,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3865,10 +3862,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3894,10 +3891,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3923,10 +3920,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3952,10 +3949,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3981,10 +3978,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4010,10 +4007,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -4039,10 +4036,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4068,10 +4065,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4097,10 +4094,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4126,10 +4123,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4155,10 +4152,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4184,10 +4181,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4213,10 +4210,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4242,10 +4239,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4271,10 +4268,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4300,10 +4297,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4329,10 +4326,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4358,10 +4355,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>14</v>
@@ -4387,10 +4384,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4416,10 +4413,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4445,10 +4442,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>

--- a/xlsx/沙漠_intext.xlsx
+++ b/xlsx/沙漠_intext.xlsx
@@ -29,7 +29,7 @@
     <t>荒漠</t>
   </si>
   <si>
-    <t>政策_政策_加州_沙漠</t>
+    <t>体育运动_体育运动_古埃及_沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9D%E7%BB%B8%E4%B9%8B%E8%B7%AF</t>
